--- a/mapping_schemes/south/ZAF_RES.xlsx
+++ b/mapping_schemes/south/ZAF_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/South/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628EB83C-4ABE-CD42-B1E6-9FE42FDB7DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53A762-8D2B-B748-97BD-327E0E3A8999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14080" yWindow="460" windowWidth="13960" windowHeight="17120" firstSheet="1" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="14080" yWindow="460" windowWidth="13960" windowHeight="17120" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="104">
   <si>
     <t>Urban</t>
   </si>
@@ -2572,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -3124,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7406EFB-7BE0-D64A-99A0-F68DD2E4BCFA}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
@@ -4937,10 +4937,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532D301C-4B0B-6C47-B274-8326500130C7}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A40"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>47</v>
@@ -5093,13 +5093,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C14">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5107,7 +5107,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>0.45</v>
@@ -5118,32 +5118,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5151,7 +5151,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -5162,21 +5162,21 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>0.47499999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5184,7 +5184,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>0.47499999999999998</v>
@@ -5195,21 +5195,21 @@
         <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>0.05</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>0.47499999999999998</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5217,7 +5217,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>0.47499999999999998</v>
@@ -5228,21 +5228,21 @@
         <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>0.05</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>0.47499999999999998</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5250,7 +5250,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>0.47499999999999998</v>
@@ -5261,21 +5261,21 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29">
-        <v>0.05</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C30">
-        <v>0.47499999999999998</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5283,7 +5283,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>0.47499999999999998</v>
@@ -5294,21 +5294,21 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32">
-        <v>0.05</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5316,7 +5316,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -5327,21 +5327,21 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5349,7 +5349,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>0.5</v>
@@ -5360,21 +5360,21 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C39">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5382,15 +5382,22 @@
         <v>24</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
@@ -5430,7 +5437,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
@@ -5438,7 +5445,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
@@ -5450,11 +5457,11 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
@@ -5545,7 +5552,7 @@
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -5586,7 +5593,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
@@ -5594,7 +5601,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
@@ -5606,11 +5613,11 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
@@ -5699,6 +5706,10 @@
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="10"/>
+      <c r="B119" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
